--- a/testplan/mosip_testplan_prereg_regproc_ida.xlsx
+++ b/testplan/mosip_testplan_prereg_regproc_ida.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-performance-tests-mt\testplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695A61AA-E7E2-47B5-97F8-F8C165ABDCE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013BB0B6-1F96-442E-8CEE-AA8CD0B5D9F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -77,30 +77,6 @@
   </si>
   <si>
     <t>1950 (75% of peak concurrent users)</t>
-  </si>
-  <si>
-    <t>Back job -  Slot availability</t>
-  </si>
-  <si>
-    <t>Back job -  Expiry of appointment</t>
-  </si>
-  <si>
-    <t>Back job -  consumed batch job</t>
-  </si>
-  <si>
-    <t>2. 200 users</t>
-  </si>
-  <si>
-    <t>3. 500 users</t>
-  </si>
-  <si>
-    <t>4. 1000 users</t>
-  </si>
-  <si>
-    <t>5. 1500 users</t>
-  </si>
-  <si>
-    <t>6. 2600 users</t>
   </si>
   <si>
     <t>2600 (Peak Load)</t>
@@ -280,49 +256,13 @@
     <t>Slot avalabilty batch Job</t>
   </si>
   <si>
-    <t>i)Slot avalabilty for 1 month</t>
-  </si>
-  <si>
-    <t>ii)Slot avalabilty for 2 months</t>
-  </si>
-  <si>
-    <t>iii)Slot avalabilty for 3 months</t>
-  </si>
-  <si>
-    <t>iv)Slot avalabilty for 4 months</t>
-  </si>
-  <si>
-    <t>v)Slot avalabilty for 5 months</t>
-  </si>
-  <si>
-    <t>vi)Slot avalabilty for 6 months</t>
-  </si>
-  <si>
     <t>Expiry batch job</t>
   </si>
   <si>
-    <t>i)Expiring 10% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600)</t>
-  </si>
-  <si>
-    <t>ii)Expiring 20% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600 )</t>
-  </si>
-  <si>
-    <t>iii)Expiring 30% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600 )</t>
-  </si>
-  <si>
     <t>Consumed batch job</t>
   </si>
   <si>
-    <t>i)running a batch job for 90% consumed status and 10% cancelled enrollments status</t>
-  </si>
-  <si>
-    <t>ii)running a batch job for 80% consumed status and 20% cancelled enrollments status</t>
-  </si>
-  <si>
     <t>Cancel and delete an application</t>
-  </si>
-  <si>
-    <t>1. 100 users</t>
   </si>
   <si>
     <t>1. 30 days slot avalability test
@@ -365,6 +305,60 @@
     <t>1. Approx number of packets created per day per operator - 35
 2. Registration per day - 30000
 3. Number of registration kiosks ~ 30000/35=860 ~ 900</t>
+  </si>
+  <si>
+    <t>Batch Job -  Slot availability</t>
+  </si>
+  <si>
+    <t>Batch Job -  Expiry of appointment</t>
+  </si>
+  <si>
+    <t>Batch Job -  consumed batch job</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 1 month</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 2 months</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 3 months</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 4 months</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 5 months</t>
+  </si>
+  <si>
+    <t>Slot avalabilty for 6 months</t>
+  </si>
+  <si>
+    <t>Expiring 10% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600)</t>
+  </si>
+  <si>
+    <t>Expiring 20% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600 )</t>
+  </si>
+  <si>
+    <t>Expiring 30% of  Peak enrollments per hour  in workload modelling is 20800 (Per hour is 2600 )</t>
+  </si>
+  <si>
+    <t>running a batch job for 90% consumed status and 10% cancelled enrollments status</t>
+  </si>
+  <si>
+    <t>running a batch job for 80% consumed status and 20% cancelled enrollments status</t>
+  </si>
+  <si>
+    <t>100 users</t>
+  </si>
+  <si>
+    <t>1000 users</t>
+  </si>
+  <si>
+    <t>1500 users</t>
+  </si>
+  <si>
+    <t>2600 users</t>
   </si>
 </sst>
 </file>
@@ -463,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -690,12 +684,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -736,160 +741,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1173,514 +1187,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7265625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="36" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7265625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="17">
+        <v>200</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="17">
+        <v>500</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="45"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="17">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17">
+        <v>2600</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
+        <v>6</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>8</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="62">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="23">
+        <v>910</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="62">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="23">
+        <v>260</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="62">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="23">
+        <v>390</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="62">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="23">
+        <v>260</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="62">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="23">
+        <v>130</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="63">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="23">
+        <v>260</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="64">
+        <v>8</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="27">
+        <v>364</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="67">
+        <v>1</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="67">
+        <v>2</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="67">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="67"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="23">
-        <v>100</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23">
-        <v>200</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="23">
-        <v>500</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="23">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
-        <v>3</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
-        <v>4</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="23">
-        <v>2600</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>5</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="23">
-        <v>2600</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
-        <v>6</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29">
-        <v>7</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
-        <v>8</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="36">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="37">
-        <v>910</v>
-      </c>
-      <c r="D19" s="38">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="36">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="37">
-        <v>260</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="37">
-        <v>390</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="37">
-        <v>260</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="36">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="37">
-        <v>130</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="40">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="37">
-        <v>260</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="41">
-        <v>8</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="43">
-        <v>364</v>
-      </c>
-      <c r="D25" s="44">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="45"/>
-      <c r="B27" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="30">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="30">
-        <v>2</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="30">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="23" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1688,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,14 +1722,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1725,7 +1745,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -1735,19 +1755,19 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>33</v>
+      <c r="B3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1755,45 +1775,45 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
-        <v>36</v>
+      <c r="B7" s="58"/>
+      <c r="C7" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="10">
         <v>1800</v>
@@ -1803,32 +1823,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
+      <c r="B8" s="58"/>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="11">
         <v>630</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="48" t="s">
-        <v>37</v>
+      <c r="B9" s="58"/>
+      <c r="C9" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
@@ -1839,10 +1859,10 @@
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
@@ -1850,117 +1870,117 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="20"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="31">
+        <v>1</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="52">
+        <v>2</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="21" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="50">
-        <v>1</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="53">
-        <v>2</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>53</v>
+      <c r="E24" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D25" s="59"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D26" s="59"/>
+      <c r="D26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D27" s="59"/>
+      <c r="D27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2002,15 +2022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -2026,7 +2046,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -2039,19 +2059,19 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>47</v>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="11">
@@ -2062,17 +2082,17 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="26"/>
+      <c r="B4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="58"/>
       <c r="G4" s="11">
         <v>1</v>
       </c>
@@ -2081,15 +2101,15 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23" t="s">
-        <v>60</v>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2098,15 +2118,15 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23" t="s">
-        <v>60</v>
+      <c r="B6" s="15"/>
+      <c r="C6" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>8</v>
@@ -2119,16 +2139,16 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23" t="s">
-        <v>31</v>
+      <c r="B7" s="15"/>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -2138,14 +2158,14 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26" t="s">
-        <v>65</v>
+      <c r="B8" s="15"/>
+      <c r="C8" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2157,12 +2177,12 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="11" t="s">
         <v>8</v>
       </c>
@@ -2172,14 +2192,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>500000</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F12" s="8">
         <v>500000</v>
@@ -2187,14 +2207,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>12</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8">
         <v>12</v>
@@ -2202,7 +2222,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <f>C12/C13</f>
@@ -2210,7 +2230,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8">
         <f>F12/F13</f>
@@ -2219,7 +2239,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8">
         <f>C14/(60*60)</f>
@@ -2227,26 +2247,26 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F15" s="8">
         <f>F14/(60*60)</f>
         <v>11.574074074074073</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>43</v>
+    <row r="16" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
